--- a/config_2.2/fish_yutu_random_2.xlsx
+++ b/config_2.2/fish_yutu_random_2.xlsx
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G17" sqref="G17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1573,10 +1573,10 @@
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="16">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H17" s="16">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1597,10 +1597,10 @@
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="16">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H18" s="16">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1621,10 +1621,10 @@
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="16">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H19" s="16">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1645,10 +1645,10 @@
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="16">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H20" s="16">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
   </sheetData>
